--- a/sujet_tp/sujet_tp/src/output/save_clustering_hsv_sift_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering_hsv_sift_rbm_kmeans.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>170.6046600341797</v>
+        <v>-151.6383666992188</v>
       </c>
       <c r="C2" t="n">
-        <v>33.12921524047852</v>
+        <v>-13.076096534729</v>
       </c>
       <c r="D2" t="n">
-        <v>-32.67360305786133</v>
+        <v>2.100912809371948</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>93.28498077392578</v>
+        <v>252.3825836181641</v>
       </c>
       <c r="C3" t="n">
-        <v>-151.3751831054688</v>
+        <v>-106.0915069580078</v>
       </c>
       <c r="D3" t="n">
-        <v>56.43570709228516</v>
+        <v>-59.66945648193359</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>170.6046600341797</v>
+        <v>244.4581298828125</v>
       </c>
       <c r="C4" t="n">
-        <v>33.12921524047852</v>
+        <v>-93.66836547851562</v>
       </c>
       <c r="D4" t="n">
-        <v>-32.67360305786133</v>
+        <v>105.7303695678711</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>159.8075561523438</v>
+        <v>-214.8048706054688</v>
       </c>
       <c r="C5" t="n">
-        <v>2.604233503341675</v>
+        <v>-101.9902877807617</v>
       </c>
       <c r="D5" t="n">
-        <v>67.26348876953125</v>
+        <v>113.7321243286133</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>260.7428283691406</v>
+        <v>-120.0477676391602</v>
       </c>
       <c r="C6" t="n">
-        <v>-17.57610893249512</v>
+        <v>-143.0310974121094</v>
       </c>
       <c r="D6" t="n">
-        <v>71.01905822753906</v>
+        <v>-98.16191864013672</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-107.1152114868164</v>
+        <v>-76.98628234863281</v>
       </c>
       <c r="C7" t="n">
-        <v>24.13889312744141</v>
+        <v>49.812744140625</v>
       </c>
       <c r="D7" t="n">
-        <v>-207.5837097167969</v>
+        <v>193.0203552246094</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-155.0840606689453</v>
+        <v>-152.6230316162109</v>
       </c>
       <c r="C8" t="n">
-        <v>21.25644493103027</v>
+        <v>280.9508972167969</v>
       </c>
       <c r="D8" t="n">
-        <v>-163.0906066894531</v>
+        <v>-0.2998676300048828</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -605,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-179.2094116210938</v>
+        <v>-83.57079315185547</v>
       </c>
       <c r="C9" t="n">
-        <v>-77.94537353515625</v>
+        <v>119.839729309082</v>
       </c>
       <c r="D9" t="n">
-        <v>-33.3693962097168</v>
+        <v>58.423828125</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128.4432830810547</v>
+        <v>113.6532516479492</v>
       </c>
       <c r="C10" t="n">
-        <v>-95.19534301757812</v>
+        <v>233.1789703369141</v>
       </c>
       <c r="D10" t="n">
-        <v>73.02425384521484</v>
+        <v>-38.68309020996094</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-59.53777313232422</v>
+        <v>1.26964271068573</v>
       </c>
       <c r="C11" t="n">
-        <v>13.83715057373047</v>
+        <v>-45.58256530761719</v>
       </c>
       <c r="D11" t="n">
-        <v>32.62100601196289</v>
+        <v>-41.02510452270508</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>273.6812438964844</v>
+        <v>217.5330810546875</v>
       </c>
       <c r="C12" t="n">
-        <v>-17.43389701843262</v>
+        <v>-1.902329444885254</v>
       </c>
       <c r="D12" t="n">
-        <v>15.89195156097412</v>
+        <v>258.8283081054688</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-40.37419891357422</v>
+        <v>159.3110046386719</v>
       </c>
       <c r="C13" t="n">
-        <v>-31.56247520446777</v>
+        <v>-170.7070007324219</v>
       </c>
       <c r="D13" t="n">
-        <v>106.340217590332</v>
+        <v>21.17234039306641</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37.19834136962891</v>
+        <v>133.8889007568359</v>
       </c>
       <c r="C14" t="n">
-        <v>-146.9452056884766</v>
+        <v>39.44446563720703</v>
       </c>
       <c r="D14" t="n">
-        <v>133.4935455322266</v>
+        <v>89.40161895751953</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-168.0856170654297</v>
+        <v>111.6510162353516</v>
       </c>
       <c r="C15" t="n">
-        <v>125.3091506958008</v>
+        <v>-21.6180591583252</v>
       </c>
       <c r="D15" t="n">
-        <v>-49.33188247680664</v>
+        <v>-175.5275268554688</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-105.7588806152344</v>
+        <v>-169.5288238525391</v>
       </c>
       <c r="C16" t="n">
-        <v>20.33089828491211</v>
+        <v>6.623814582824707</v>
       </c>
       <c r="D16" t="n">
-        <v>-104.9097213745117</v>
+        <v>-201.4629821777344</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -765,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-44.60393524169922</v>
+        <v>57.56507873535156</v>
       </c>
       <c r="C17" t="n">
-        <v>17.89628601074219</v>
+        <v>226.5158081054688</v>
       </c>
       <c r="D17" t="n">
-        <v>-36.80988311767578</v>
+        <v>95.58641052246094</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>85.93936920166016</v>
+        <v>43.34604263305664</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.342052459716797</v>
+        <v>-6.719702243804932</v>
       </c>
       <c r="D18" t="n">
-        <v>34.02042388916016</v>
+        <v>201.1905822753906</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-138.2239379882812</v>
+        <v>58.43459320068359</v>
       </c>
       <c r="C19" t="n">
-        <v>8.755365371704102</v>
+        <v>68.54911804199219</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.3145866394043</v>
+        <v>-96.93596649169922</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>179.476318359375</v>
+        <v>-233.6542510986328</v>
       </c>
       <c r="C20" t="n">
-        <v>74.23968505859375</v>
+        <v>-146.7912292480469</v>
       </c>
       <c r="D20" t="n">
-        <v>27.9261360168457</v>
+        <v>-12.39750385284424</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.7895258665084839</v>
+        <v>-102.621940612793</v>
       </c>
       <c r="C21" t="n">
-        <v>-130.2210693359375</v>
+        <v>-130.3224029541016</v>
       </c>
       <c r="D21" t="n">
-        <v>76.23490142822266</v>
+        <v>27.89547538757324</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>140.8185577392578</v>
+        <v>147.0473022460938</v>
       </c>
       <c r="C22" t="n">
-        <v>-27.80904579162598</v>
+        <v>-55.54862594604492</v>
       </c>
       <c r="D22" t="n">
-        <v>4.698890686035156</v>
+        <v>34.83539199829102</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-22.43594551086426</v>
+        <v>-5.420206546783447</v>
       </c>
       <c r="C23" t="n">
-        <v>-55.3877067565918</v>
+        <v>-199.2757110595703</v>
       </c>
       <c r="D23" t="n">
-        <v>-54.84429550170898</v>
+        <v>182.2532043457031</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>110.7305221557617</v>
+        <v>98.77309417724609</v>
       </c>
       <c r="C24" t="n">
-        <v>67.98696899414062</v>
+        <v>-155.9092102050781</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6883363127708435</v>
+        <v>121.6803283691406</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-9.705562591552734</v>
+        <v>253.2564697265625</v>
       </c>
       <c r="C25" t="n">
-        <v>61.80226898193359</v>
+        <v>26.92358589172363</v>
       </c>
       <c r="D25" t="n">
-        <v>-80.82292938232422</v>
+        <v>38.67671585083008</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-154.2171478271484</v>
+        <v>-227.4758911132812</v>
       </c>
       <c r="C26" t="n">
-        <v>62.63957595825195</v>
+        <v>85.71267700195312</v>
       </c>
       <c r="D26" t="n">
-        <v>-101.1884002685547</v>
+        <v>-155.9062957763672</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-60.37828063964844</v>
+        <v>-66.20323944091797</v>
       </c>
       <c r="C27" t="n">
-        <v>-34.46728134155273</v>
+        <v>-51.5505256652832</v>
       </c>
       <c r="D27" t="n">
-        <v>8.588634490966797</v>
+        <v>113.9390258789062</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-60.01009368896484</v>
+        <v>-34.36422729492188</v>
       </c>
       <c r="C28" t="n">
-        <v>133.8313751220703</v>
+        <v>-168.9844512939453</v>
       </c>
       <c r="D28" t="n">
-        <v>-98.30593109130859</v>
+        <v>-42.8674430847168</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>123.230827331543</v>
+        <v>-47.89004898071289</v>
       </c>
       <c r="C29" t="n">
-        <v>-115.3127059936523</v>
+        <v>180.8666687011719</v>
       </c>
       <c r="D29" t="n">
-        <v>7.473873615264893</v>
+        <v>260.2179565429688</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-82.88867950439453</v>
+        <v>-11.49178600311279</v>
       </c>
       <c r="C30" t="n">
-        <v>195.7042846679688</v>
+        <v>-133.6168975830078</v>
       </c>
       <c r="D30" t="n">
-        <v>-93.38378143310547</v>
+        <v>-157.5568542480469</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-33.65909957885742</v>
+        <v>-9.179452896118164</v>
       </c>
       <c r="C31" t="n">
-        <v>-98.87248229980469</v>
+        <v>24.95742988586426</v>
       </c>
       <c r="D31" t="n">
-        <v>118.9021301269531</v>
+        <v>84.76840972900391</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31.53763198852539</v>
+        <v>-99.20112609863281</v>
       </c>
       <c r="C32" t="n">
-        <v>-147.7008972167969</v>
+        <v>-325.4718627929688</v>
       </c>
       <c r="D32" t="n">
-        <v>15.60810852050781</v>
+        <v>-90.87398529052734</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-83.98953247070312</v>
+        <v>-80.17069244384766</v>
       </c>
       <c r="C33" t="n">
-        <v>71.87409973144531</v>
+        <v>44.59327697753906</v>
       </c>
       <c r="D33" t="n">
-        <v>-70.4447021484375</v>
+        <v>-177.0900573730469</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>110.7305221557617</v>
+        <v>48.70897674560547</v>
       </c>
       <c r="C34" t="n">
-        <v>67.98696899414062</v>
+        <v>34.71281433105469</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.6883363127708435</v>
+        <v>343.2979736328125</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>122.4096450805664</v>
+        <v>208.677490234375</v>
       </c>
       <c r="C35" t="n">
-        <v>56.52130126953125</v>
+        <v>46.90018081665039</v>
       </c>
       <c r="D35" t="n">
-        <v>83.31802368164062</v>
+        <v>-201.4790649414062</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-162.743896484375</v>
+        <v>-51.310546875</v>
       </c>
       <c r="C36" t="n">
-        <v>-24.22442626953125</v>
+        <v>285.2468566894531</v>
       </c>
       <c r="D36" t="n">
-        <v>-72.81629180908203</v>
+        <v>-65.26184844970703</v>
       </c>
       <c r="E36" t="n">
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-170.2464752197266</v>
+        <v>73.94656372070312</v>
       </c>
       <c r="C37" t="n">
-        <v>134.9126739501953</v>
+        <v>280.1253051757812</v>
       </c>
       <c r="D37" t="n">
-        <v>-111.2790451049805</v>
+        <v>-114.5083312988281</v>
       </c>
       <c r="E37" t="n">
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.69832611083984</v>
+        <v>6.57291316986084</v>
       </c>
       <c r="C38" t="n">
-        <v>-77.27101135253906</v>
+        <v>142.7651062011719</v>
       </c>
       <c r="D38" t="n">
-        <v>33.83996200561523</v>
+        <v>-238.7082977294922</v>
       </c>
       <c r="E38" t="n">
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-31.07842254638672</v>
+        <v>-87.78746795654297</v>
       </c>
       <c r="C39" t="n">
-        <v>-18.7396354675293</v>
+        <v>162.3737030029297</v>
       </c>
       <c r="D39" t="n">
-        <v>175.9090728759766</v>
+        <v>-244.0238647460938</v>
       </c>
       <c r="E39" t="n">
         <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>100.5175399780273</v>
+        <v>89.83916473388672</v>
       </c>
       <c r="C40" t="n">
-        <v>4.378608703613281</v>
+        <v>-264.7351379394531</v>
       </c>
       <c r="D40" t="n">
-        <v>-43.00316619873047</v>
+        <v>-128.7718048095703</v>
       </c>
       <c r="E40" t="n">
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-85.78298187255859</v>
+        <v>-157.1600189208984</v>
       </c>
       <c r="C41" t="n">
-        <v>-72.77108001708984</v>
+        <v>-296.2053527832031</v>
       </c>
       <c r="D41" t="n">
-        <v>94.36693572998047</v>
+        <v>37.44595336914062</v>
       </c>
       <c r="E41" t="n">
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-94.79833984375</v>
+        <v>114.1288681030273</v>
       </c>
       <c r="C42" t="n">
-        <v>-16.63253784179688</v>
+        <v>-261.6899108886719</v>
       </c>
       <c r="D42" t="n">
-        <v>144.6988830566406</v>
+        <v>-18.6188907623291</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-211.1787109375</v>
+        <v>-56.59910202026367</v>
       </c>
       <c r="C43" t="n">
-        <v>-27.86980438232422</v>
+        <v>111.2031860351562</v>
       </c>
       <c r="D43" t="n">
-        <v>-34.52569961547852</v>
+        <v>-41.1710090637207</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/sujet_tp/sujet_tp/src/output/save_clustering_hsv_sift_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering_hsv_sift_rbm_kmeans.xlsx
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-151.6383666992188</v>
+        <v>-77.3839111328125</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.076096534729</v>
+        <v>136.0851898193359</v>
       </c>
       <c r="D2" t="n">
-        <v>2.100912809371948</v>
+        <v>-21.20427513122559</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>252.3825836181641</v>
+        <v>-147.9049835205078</v>
       </c>
       <c r="C3" t="n">
-        <v>-106.0915069580078</v>
+        <v>93.20132446289062</v>
       </c>
       <c r="D3" t="n">
-        <v>-59.66945648193359</v>
+        <v>-162.7044219970703</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,13 +505,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>244.4581298828125</v>
+        <v>-132.6089477539062</v>
       </c>
       <c r="C4" t="n">
-        <v>-93.66836547851562</v>
+        <v>69.24282836914062</v>
       </c>
       <c r="D4" t="n">
-        <v>105.7303695678711</v>
+        <v>52.68378448486328</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-214.8048706054688</v>
+        <v>-174.4836730957031</v>
       </c>
       <c r="C5" t="n">
-        <v>-101.9902877807617</v>
+        <v>9.938889503479004</v>
       </c>
       <c r="D5" t="n">
-        <v>113.7321243286133</v>
+        <v>-1.316356420516968</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -545,13 +545,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-120.0477676391602</v>
+        <v>-54.94191360473633</v>
       </c>
       <c r="C6" t="n">
-        <v>-143.0310974121094</v>
+        <v>-36.89089202880859</v>
       </c>
       <c r="D6" t="n">
-        <v>-98.16191864013672</v>
+        <v>133.0753631591797</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -565,13 +565,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-76.98628234863281</v>
+        <v>49.70917510986328</v>
       </c>
       <c r="C7" t="n">
-        <v>49.812744140625</v>
+        <v>56.80217361450195</v>
       </c>
       <c r="D7" t="n">
-        <v>193.0203552246094</v>
+        <v>-17.31228446960449</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -585,13 +585,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-152.6230316162109</v>
+        <v>224.2180633544922</v>
       </c>
       <c r="C8" t="n">
-        <v>280.9508972167969</v>
+        <v>-116.1800537109375</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2998676300048828</v>
+        <v>-85.19868469238281</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -605,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-83.57079315185547</v>
+        <v>91.17361450195312</v>
       </c>
       <c r="C9" t="n">
-        <v>119.839729309082</v>
+        <v>-1.786494016647339</v>
       </c>
       <c r="D9" t="n">
-        <v>58.423828125</v>
+        <v>119.5330429077148</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -625,13 +625,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113.6532516479492</v>
+        <v>145.7460784912109</v>
       </c>
       <c r="C10" t="n">
-        <v>233.1789703369141</v>
+        <v>2.528066396713257</v>
       </c>
       <c r="D10" t="n">
-        <v>-38.68309020996094</v>
+        <v>-140.663818359375</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -645,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.26964271068573</v>
+        <v>22.61962509155273</v>
       </c>
       <c r="C11" t="n">
-        <v>-45.58256530761719</v>
+        <v>-23.56671142578125</v>
       </c>
       <c r="D11" t="n">
-        <v>-41.02510452270508</v>
+        <v>53.77538681030273</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>217.5330810546875</v>
+        <v>42.94855499267578</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.902329444885254</v>
+        <v>137.9920349121094</v>
       </c>
       <c r="D12" t="n">
-        <v>258.8283081054688</v>
+        <v>17.1128044128418</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -685,13 +685,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159.3110046386719</v>
+        <v>-152.1480560302734</v>
       </c>
       <c r="C13" t="n">
-        <v>-170.7070007324219</v>
+        <v>100.3848114013672</v>
       </c>
       <c r="D13" t="n">
-        <v>21.17234039306641</v>
+        <v>-69.29205322265625</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -705,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133.8889007568359</v>
+        <v>-136.9455413818359</v>
       </c>
       <c r="C14" t="n">
-        <v>39.44446563720703</v>
+        <v>207.9178771972656</v>
       </c>
       <c r="D14" t="n">
-        <v>89.40161895751953</v>
+        <v>-27.9687557220459</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -725,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>111.6510162353516</v>
+        <v>54.13785171508789</v>
       </c>
       <c r="C15" t="n">
-        <v>-21.6180591583252</v>
+        <v>-134.1325378417969</v>
       </c>
       <c r="D15" t="n">
-        <v>-175.5275268554688</v>
+        <v>-9.515468597412109</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -745,13 +745,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-169.5288238525391</v>
+        <v>71.73117828369141</v>
       </c>
       <c r="C16" t="n">
-        <v>6.623814582824707</v>
+        <v>-151.530517578125</v>
       </c>
       <c r="D16" t="n">
-        <v>-201.4629821777344</v>
+        <v>99.55035400390625</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -765,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57.56507873535156</v>
+        <v>35.24360275268555</v>
       </c>
       <c r="C17" t="n">
-        <v>226.5158081054688</v>
+        <v>-214.7191467285156</v>
       </c>
       <c r="D17" t="n">
-        <v>95.58641052246094</v>
+        <v>-4.28685474395752</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -785,13 +785,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>43.34604263305664</v>
+        <v>93.47759246826172</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.719702243804932</v>
+        <v>11.89019393920898</v>
       </c>
       <c r="D18" t="n">
-        <v>201.1905822753906</v>
+        <v>54.8408317565918</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -805,13 +805,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>58.43459320068359</v>
+        <v>98.29238128662109</v>
       </c>
       <c r="C19" t="n">
-        <v>68.54911804199219</v>
+        <v>-82.76144409179688</v>
       </c>
       <c r="D19" t="n">
-        <v>-96.93596649169922</v>
+        <v>23.97232055664062</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -825,13 +825,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-233.6542510986328</v>
+        <v>-125.4697799682617</v>
       </c>
       <c r="C20" t="n">
-        <v>-146.7912292480469</v>
+        <v>-68.40184020996094</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.39750385284424</v>
+        <v>-17.68878555297852</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -845,13 +845,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-102.621940612793</v>
+        <v>-90.57061004638672</v>
       </c>
       <c r="C21" t="n">
-        <v>-130.3224029541016</v>
+        <v>-57.29935836791992</v>
       </c>
       <c r="D21" t="n">
-        <v>27.89547538757324</v>
+        <v>66.41398620605469</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>147.0473022460938</v>
+        <v>-147.9665222167969</v>
       </c>
       <c r="C22" t="n">
-        <v>-55.54862594604492</v>
+        <v>139.4442443847656</v>
       </c>
       <c r="D22" t="n">
-        <v>34.83539199829102</v>
+        <v>-2.614592790603638</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.420206546783447</v>
+        <v>-143.3766937255859</v>
       </c>
       <c r="C23" t="n">
-        <v>-199.2757110595703</v>
+        <v>244.1146545410156</v>
       </c>
       <c r="D23" t="n">
-        <v>182.2532043457031</v>
+        <v>-94.80275726318359</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -905,13 +905,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>98.77309417724609</v>
+        <v>-143.2747039794922</v>
       </c>
       <c r="C24" t="n">
-        <v>-155.9092102050781</v>
+        <v>164.2413177490234</v>
       </c>
       <c r="D24" t="n">
-        <v>121.6803283691406</v>
+        <v>-120.3547058105469</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -925,13 +925,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>253.2564697265625</v>
+        <v>-107.8809432983398</v>
       </c>
       <c r="C25" t="n">
-        <v>26.92358589172363</v>
+        <v>153.7515411376953</v>
       </c>
       <c r="D25" t="n">
-        <v>38.67671585083008</v>
+        <v>69.64704895019531</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -945,13 +945,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-227.4758911132812</v>
+        <v>17.04431915283203</v>
       </c>
       <c r="C26" t="n">
-        <v>85.71267700195312</v>
+        <v>-189.8519439697266</v>
       </c>
       <c r="D26" t="n">
-        <v>-155.9062957763672</v>
+        <v>127.1831283569336</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
@@ -965,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-66.20323944091797</v>
+        <v>-10.07588195800781</v>
       </c>
       <c r="C27" t="n">
-        <v>-51.5505256652832</v>
+        <v>-86.66568756103516</v>
       </c>
       <c r="D27" t="n">
-        <v>113.9390258789062</v>
+        <v>-38.55020523071289</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-34.36422729492188</v>
+        <v>-61.35319900512695</v>
       </c>
       <c r="C28" t="n">
-        <v>-168.9844512939453</v>
+        <v>6.814157962799072</v>
       </c>
       <c r="D28" t="n">
-        <v>-42.8674430847168</v>
+        <v>38.93560028076172</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-47.89004898071289</v>
+        <v>-105.1940155029297</v>
       </c>
       <c r="C29" t="n">
-        <v>180.8666687011719</v>
+        <v>25.01086044311523</v>
       </c>
       <c r="D29" t="n">
-        <v>260.2179565429688</v>
+        <v>-190.0009613037109</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -1025,13 +1025,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-11.49178600311279</v>
+        <v>-151.9315338134766</v>
       </c>
       <c r="C30" t="n">
-        <v>-133.6168975830078</v>
+        <v>-20.70760154724121</v>
       </c>
       <c r="D30" t="n">
-        <v>-157.5568542480469</v>
+        <v>68.65303039550781</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
@@ -1045,13 +1045,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-9.179452896118164</v>
+        <v>16.18559646606445</v>
       </c>
       <c r="C31" t="n">
-        <v>24.95742988586426</v>
+        <v>-45.76411437988281</v>
       </c>
       <c r="D31" t="n">
-        <v>84.76840972900391</v>
+        <v>-90.884033203125</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
@@ -1065,13 +1065,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-99.20112609863281</v>
+        <v>-61.8036994934082</v>
       </c>
       <c r="C32" t="n">
-        <v>-325.4718627929688</v>
+        <v>233.9136199951172</v>
       </c>
       <c r="D32" t="n">
-        <v>-90.87398529052734</v>
+        <v>-25.63506317138672</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-80.17069244384766</v>
+        <v>124.0960922241211</v>
       </c>
       <c r="C33" t="n">
-        <v>44.59327697753906</v>
+        <v>-161.1033325195312</v>
       </c>
       <c r="D33" t="n">
-        <v>-177.0900573730469</v>
+        <v>54.75137329101562</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>48.70897674560547</v>
+        <v>177.4755249023438</v>
       </c>
       <c r="C34" t="n">
-        <v>34.71281433105469</v>
+        <v>-9.736459732055664</v>
       </c>
       <c r="D34" t="n">
-        <v>343.2979736328125</v>
+        <v>-19.31761741638184</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>208.677490234375</v>
+        <v>55.54224395751953</v>
       </c>
       <c r="C35" t="n">
-        <v>46.90018081665039</v>
+        <v>-189.0784149169922</v>
       </c>
       <c r="D35" t="n">
-        <v>-201.4790649414062</v>
+        <v>-91.35820770263672</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-51.310546875</v>
+        <v>230.0919342041016</v>
       </c>
       <c r="C36" t="n">
-        <v>285.2468566894531</v>
+        <v>0.9502631425857544</v>
       </c>
       <c r="D36" t="n">
-        <v>-65.26184844970703</v>
+        <v>-87.15291595458984</v>
       </c>
       <c r="E36" t="n">
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>73.94656372070312</v>
+        <v>153.4275970458984</v>
       </c>
       <c r="C37" t="n">
-        <v>280.1253051757812</v>
+        <v>63.62996292114258</v>
       </c>
       <c r="D37" t="n">
-        <v>-114.5083312988281</v>
+        <v>-114.6524963378906</v>
       </c>
       <c r="E37" t="n">
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.57291316986084</v>
+        <v>221.8466491699219</v>
       </c>
       <c r="C38" t="n">
-        <v>142.7651062011719</v>
+        <v>-112.446891784668</v>
       </c>
       <c r="D38" t="n">
-        <v>-238.7082977294922</v>
+        <v>-2.918632984161377</v>
       </c>
       <c r="E38" t="n">
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-87.78746795654297</v>
+        <v>205.8364105224609</v>
       </c>
       <c r="C39" t="n">
-        <v>162.3737030029297</v>
+        <v>-143.8679351806641</v>
       </c>
       <c r="D39" t="n">
-        <v>-244.0238647460938</v>
+        <v>60.81375122070312</v>
       </c>
       <c r="E39" t="n">
         <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>89.83916473388672</v>
+        <v>-40.09957885742188</v>
       </c>
       <c r="C40" t="n">
-        <v>-264.7351379394531</v>
+        <v>55.77742767333984</v>
       </c>
       <c r="D40" t="n">
-        <v>-128.7718048095703</v>
+        <v>-85.87731170654297</v>
       </c>
       <c r="E40" t="n">
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-157.1600189208984</v>
+        <v>66.86058807373047</v>
       </c>
       <c r="C41" t="n">
-        <v>-296.2053527832031</v>
+        <v>-6.225153923034668</v>
       </c>
       <c r="D41" t="n">
-        <v>37.44595336914062</v>
+        <v>198.7789306640625</v>
       </c>
       <c r="E41" t="n">
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>114.1288681030273</v>
+        <v>-107.408088684082</v>
       </c>
       <c r="C42" t="n">
-        <v>-261.6899108886719</v>
+        <v>33.80897521972656</v>
       </c>
       <c r="D42" t="n">
-        <v>-18.6188907623291</v>
+        <v>-46.50857925415039</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-56.59910202026367</v>
+        <v>142.8248138427734</v>
       </c>
       <c r="C43" t="n">
-        <v>111.2031860351562</v>
+        <v>-41.2388801574707</v>
       </c>
       <c r="D43" t="n">
-        <v>-41.1710090637207</v>
+        <v>92.33115386962891</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
